--- a/GWD Data/PVC on Wall PRICE.xlsx
+++ b/GWD Data/PVC on Wall PRICE.xlsx
@@ -854,7 +854,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFF00FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -6952,9 +6952,7 @@
       <c r="F345" s="12"/>
       <c r="G345" s="4"/>
       <c r="H345" s="5"/>
-      <c r="I345" s="33">
-        <v>1.0</v>
-      </c>
+      <c r="I345" s="33"/>
     </row>
     <row r="346">
       <c r="A346" s="10" t="s">
@@ -6969,9 +6967,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="4"/>
       <c r="H346" s="5"/>
-      <c r="I346" s="33">
-        <v>2.0</v>
-      </c>
+      <c r="I346" s="33"/>
     </row>
     <row r="347">
       <c r="A347" s="14" t="s">
